--- a/2022/Realme/APRIL/04.04.2022/realme Bank Statement April-20222.xlsx
+++ b/2022/Realme/APRIL/04.04.2022/realme Bank Statement April-20222.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -202,9 +202,6 @@
     <t xml:space="preserve">General Cost </t>
   </si>
   <si>
-    <t>18.12.2021</t>
-  </si>
-  <si>
     <t>Noyon Lalpur</t>
   </si>
   <si>
@@ -292,12 +289,6 @@
     <t>Rofiqul</t>
   </si>
   <si>
-    <t>Liton Office Pase</t>
-  </si>
-  <si>
-    <t>9i</t>
-  </si>
-  <si>
     <t>16.03.2022</t>
   </si>
   <si>
@@ -308,9 +299,6 @@
   </si>
   <si>
     <t>L=Noyon Telecom</t>
-  </si>
-  <si>
-    <t>26.03.2022</t>
   </si>
   <si>
     <t>8+C25s</t>
@@ -353,6 +341,9 @@
   </si>
   <si>
     <t>Realme Adj: Due</t>
+  </si>
+  <si>
+    <t>05.04.2022</t>
   </si>
 </sst>
 </file>
@@ -2477,6 +2468,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2504,28 +2513,10 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="36" fillId="35" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3193,7 +3184,7 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="267" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" s="267"/>
       <c r="D2" s="267"/>
@@ -3261,7 +3252,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="19">
         <v>700000</v>
@@ -3282,7 +3273,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="261">
         <v>4000000</v>
@@ -3295,7 +3286,7 @@
         <v>717807</v>
       </c>
       <c r="F8" s="263" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3305,7 +3296,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="15"/>
       <c r="B9" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="22">
         <v>0</v>
@@ -3970,67 +3961,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="269"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="269"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="270" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="272"/>
+      <c r="A3" s="276" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="277"/>
+      <c r="M3" s="277"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="277"/>
+      <c r="P3" s="277"/>
+      <c r="Q3" s="278"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4039,52 +4030,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="275" t="s">
+      <c r="B4" s="281" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="277" t="s">
+      <c r="D4" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="277" t="s">
+      <c r="E4" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="277" t="s">
+      <c r="F4" s="268" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="277" t="s">
+      <c r="G4" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="277" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="277" t="s">
+      <c r="H4" s="268" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="277" t="s">
+      <c r="J4" s="268" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="277" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="277" t="s">
+      <c r="K4" s="268" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="277" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="283" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="281" t="s">
+      <c r="M4" s="268" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="272" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="279" t="s">
+      <c r="P4" s="283" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4097,22 +4088,22 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="274"/>
-      <c r="B5" s="276"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="278"/>
-      <c r="G5" s="278"/>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278"/>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="278"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="282"/>
-      <c r="P5" s="280"/>
+      <c r="A5" s="280"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
+      <c r="E5" s="269"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="269"/>
+      <c r="K5" s="269"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="269"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="271"/>
+      <c r="P5" s="284"/>
       <c r="Q5" s="94" t="s">
         <v>36</v>
       </c>
@@ -4125,7 +4116,7 @@
     </row>
     <row r="6" spans="1:24" s="9" customFormat="1">
       <c r="A6" s="98" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="99">
         <v>500</v>
@@ -4163,7 +4154,7 @@
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1">
       <c r="A7" s="98" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" s="99"/>
       <c r="C7" s="99"/>
@@ -4197,7 +4188,7 @@
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1">
       <c r="A8" s="98" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B8" s="106"/>
       <c r="C8" s="99"/>
@@ -7024,9 +7015,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7043,6 +7031,9 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7053,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -8903,12 +8894,10 @@
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="43">
-        <v>-685880</v>
-      </c>
+      <c r="D28" s="43"/>
       <c r="E28" s="43">
         <f t="shared" si="0"/>
-        <v>-685880</v>
+        <v>0</v>
       </c>
       <c r="F28" s="144"/>
       <c r="G28" s="38"/>
@@ -9109,10 +9098,12 @@
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="D31" s="43">
+        <v>-671890</v>
+      </c>
       <c r="E31" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-671890</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="60"/>
@@ -9251,11 +9242,11 @@
       <c r="D33" s="43"/>
       <c r="E33" s="43">
         <f>SUM(E5:E32)</f>
-        <v>-685880</v>
+        <v>-671890</v>
       </c>
       <c r="F33" s="43">
         <f>B33-E33</f>
-        <v>685880</v>
+        <v>671890</v>
       </c>
       <c r="G33" s="60"/>
       <c r="H33" s="147"/>
@@ -9518,7 +9509,7 @@
         <v>31990</v>
       </c>
       <c r="D37" s="251" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="39"/>
@@ -9651,16 +9642,16 @@
     </row>
     <row r="39" spans="1:61" ht="14.25">
       <c r="A39" s="223" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="223" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="224">
         <v>31990</v>
       </c>
       <c r="D39" s="226" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="39"/>
@@ -9722,7 +9713,7 @@
     </row>
     <row r="40" spans="1:61" ht="14.25">
       <c r="A40" s="223" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="223" t="s">
         <v>51</v>
@@ -9731,7 +9722,7 @@
         <v>4500</v>
       </c>
       <c r="D40" s="226" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="39"/>
@@ -9793,16 +9784,16 @@
     </row>
     <row r="41" spans="1:61" ht="14.25">
       <c r="A41" s="223" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B41" s="223" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C41" s="224">
-        <v>840</v>
-      </c>
-      <c r="D41" s="227" t="s">
-        <v>56</v>
+        <v>4460</v>
+      </c>
+      <c r="D41" s="226" t="s">
+        <v>79</v>
       </c>
       <c r="E41" s="65"/>
       <c r="F41" s="39"/>
@@ -9864,15 +9855,15 @@
     </row>
     <row r="42" spans="1:61" ht="15" thickBot="1">
       <c r="A42" s="223" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B42" s="223" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="224">
-        <v>4460</v>
-      </c>
-      <c r="D42" s="226" t="s">
+        <v>100000</v>
+      </c>
+      <c r="D42" s="227" t="s">
         <v>80</v>
       </c>
       <c r="F42" s="165"/>
@@ -9934,16 +9925,16 @@
     </row>
     <row r="43" spans="1:61" ht="15" thickBot="1">
       <c r="A43" s="223" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B43" s="223" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="224">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="D43" s="227" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="299" t="s">
@@ -10007,16 +9998,16 @@
     </row>
     <row r="44" spans="1:61" ht="14.25">
       <c r="A44" s="223" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B44" s="223" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C44" s="224">
-        <v>290000</v>
-      </c>
-      <c r="D44" s="227" t="s">
-        <v>88</v>
+        <v>5000</v>
+      </c>
+      <c r="D44" s="226" t="s">
+        <v>103</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="230"/>
@@ -10077,16 +10068,14 @@
     </row>
     <row r="45" spans="1:61" ht="14.25">
       <c r="A45" s="223" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="223" t="s">
-        <v>93</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B45" s="223"/>
       <c r="C45" s="224">
-        <v>18150</v>
+        <v>108170</v>
       </c>
       <c r="D45" s="226" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="232"/>
@@ -10147,14 +10136,14 @@
     </row>
     <row r="46" spans="1:61" ht="14.25">
       <c r="A46" s="223" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B46" s="223"/>
       <c r="C46" s="224">
-        <v>108170</v>
+        <v>30000</v>
       </c>
       <c r="D46" s="226" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="234"/>
@@ -10214,15 +10203,17 @@
       <c r="BI46" s="141"/>
     </row>
     <row r="47" spans="1:61" ht="14.25">
-      <c r="A47" s="223" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="223"/>
+      <c r="A47" s="252" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="223" t="s">
+        <v>63</v>
+      </c>
       <c r="C47" s="224">
-        <v>30000</v>
-      </c>
-      <c r="D47" s="226" t="s">
-        <v>94</v>
+        <v>31990</v>
+      </c>
+      <c r="D47" s="227" t="s">
+        <v>83</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="234"/>
@@ -10282,20 +10273,22 @@
       <c r="BI47" s="141"/>
     </row>
     <row r="48" spans="1:61" ht="14.25">
-      <c r="A48" s="252" t="s">
-        <v>65</v>
+      <c r="A48" s="223" t="s">
+        <v>59</v>
       </c>
       <c r="B48" s="223" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="224">
         <v>31990</v>
       </c>
-      <c r="D48" s="227" t="s">
-        <v>84</v>
+      <c r="D48" s="226" t="s">
+        <v>83</v>
       </c>
       <c r="E48" s="47"/>
-      <c r="F48" s="234"/>
+      <c r="F48" s="234" t="s">
+        <v>11</v>
+      </c>
       <c r="G48" s="69"/>
       <c r="H48" s="144"/>
       <c r="I48" s="41"/>
@@ -10352,18 +10345,10 @@
       <c r="BI48" s="141"/>
     </row>
     <row r="49" spans="1:61" ht="14.25">
-      <c r="A49" s="223" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="223" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="224">
-        <v>31990</v>
-      </c>
-      <c r="D49" s="226" t="s">
-        <v>84</v>
-      </c>
+      <c r="A49" s="223"/>
+      <c r="B49" s="223"/>
+      <c r="C49" s="224"/>
+      <c r="D49" s="227"/>
       <c r="E49" s="47"/>
       <c r="F49" s="234"/>
       <c r="G49" s="144"/>
@@ -14755,7 +14740,7 @@
       <c r="B119" s="288"/>
       <c r="C119" s="221">
         <f>SUM(C37:C118)</f>
-        <v>685880</v>
+        <v>671890</v>
       </c>
       <c r="D119" s="220"/>
       <c r="F119" s="240"/>
@@ -16168,7 +16153,7 @@
       <c r="J232" s="38"/>
     </row>
   </sheetData>
-  <sortState ref="A37:D51">
+  <sortState ref="A37:D49">
     <sortCondition ref="A37"/>
   </sortState>
   <mergeCells count="10">
@@ -16197,8 +16182,8 @@
   </sheetPr>
   <dimension ref="A1:AB218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16235,7 +16220,7 @@
     </row>
     <row r="2" spans="1:28" ht="21.75">
       <c r="A2" s="314" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="315"/>
       <c r="C2" s="315"/>
@@ -16246,7 +16231,7 @@
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
       <c r="A3" s="308" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" s="309"/>
       <c r="C3" s="309"/>
@@ -16286,7 +16271,7 @@
       <c r="E4" s="319"/>
       <c r="F4" s="184"/>
       <c r="G4" s="254" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -16311,7 +16296,7 @@
     </row>
     <row r="5" spans="1:28" ht="21.75">
       <c r="A5" s="188" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="189">
         <v>9000000</v>
@@ -16357,7 +16342,7 @@
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="157">
         <v>717807</v>
@@ -16389,7 +16374,7 @@
       <c r="B7" s="181"/>
       <c r="C7" s="32"/>
       <c r="D7" s="152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="180">
         <v>1243284</v>
@@ -16526,7 +16511,7 @@
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="152" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E11" s="157">
         <v>71190</v>
@@ -16610,7 +16595,7 @@
     </row>
     <row r="14" spans="1:28" ht="21.75">
       <c r="A14" s="264" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="265">
         <v>4000000</v>
@@ -16639,7 +16624,7 @@
     </row>
     <row r="15" spans="1:28" ht="21.75">
       <c r="A15" s="33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15" s="156">
         <v>100000</v>
@@ -16668,7 +16653,7 @@
     </row>
     <row r="16" spans="1:28" ht="21.75">
       <c r="A16" s="33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" s="156">
         <v>200000</v>
@@ -16824,14 +16809,14 @@
     </row>
     <row r="21" spans="1:28" ht="21.75">
       <c r="A21" s="182" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="186">
         <v>31990</v>
       </c>
       <c r="C21" s="183"/>
       <c r="D21" s="183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="187">
         <v>31990</v>
@@ -16861,14 +16846,14 @@
     </row>
     <row r="22" spans="1:28" ht="21.75">
       <c r="A22" s="193" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="191">
         <v>100000</v>
       </c>
       <c r="C22" s="192"/>
       <c r="D22" s="190" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="194">
         <v>31990</v>
@@ -16899,14 +16884,14 @@
     </row>
     <row r="23" spans="1:28" s="1" customFormat="1" ht="21.75">
       <c r="A23" s="193" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="191">
         <v>290000</v>
       </c>
       <c r="C23" s="192"/>
       <c r="D23" s="190" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="194">
         <v>31990</v>
@@ -16916,14 +16901,14 @@
     </row>
     <row r="24" spans="1:28" s="1" customFormat="1" ht="22.5" thickBot="1">
       <c r="A24" s="197" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B24" s="198">
         <v>9000</v>
       </c>
       <c r="C24" s="253"/>
       <c r="D24" s="199" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="200">
         <v>110000</v>
